--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>DiagnosticReport.code.coding.display</t>
+  </si>
+  <si>
+    <t>画像検査報告書</t>
   </si>
   <si>
     <t>DiagnosticReport.code.coding:radiologyReportCode.userSelected</t>
@@ -7158,7 +7161,7 @@
         <v>41</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>41</v>
@@ -7226,10 +7229,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7342,10 +7345,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7458,14 +7461,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7484,19 +7487,19 @@
         <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7545,7 +7548,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7560,28 +7563,28 @@
         <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7600,19 +7603,19 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7661,7 +7664,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7676,28 +7679,28 @@
         <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7716,19 +7719,19 @@
         <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7777,7 +7780,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7792,28 +7795,28 @@
         <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7832,19 +7835,19 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -7893,7 +7896,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7911,25 +7914,25 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7948,19 +7951,19 @@
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8009,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8024,28 +8027,28 @@
         <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8064,19 +8067,19 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8125,7 +8128,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8140,24 +8143,24 @@
         <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8180,19 +8183,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8241,7 +8244,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8259,10 +8262,10 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8270,14 +8273,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8296,19 +8299,19 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8357,7 +8360,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8375,10 +8378,10 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8386,10 +8389,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8412,16 +8415,16 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8471,7 +8474,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8492,7 +8495,7 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8500,14 +8503,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8526,19 +8529,19 @@
         <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8587,7 +8590,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8605,10 +8608,10 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8616,10 +8619,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8728,10 +8731,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8842,14 +8845,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8871,10 +8874,10 @@
         <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>100</v>
@@ -8929,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8958,10 +8961,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8987,16 +8990,16 @@
         <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9045,7 +9048,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9066,7 +9069,7 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9074,10 +9077,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9100,16 +9103,16 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9159,7 +9162,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>51</v>
@@ -9180,7 +9183,7 @@
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9188,14 +9191,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9217,16 +9220,16 @@
         <v>159</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9275,7 +9278,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9293,10 +9296,10 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9304,10 +9307,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9333,13 +9336,13 @@
         <v>143</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9365,13 +9368,13 @@
         <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>41</v>
@@ -9389,7 +9392,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9407,10 +9410,10 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9418,10 +9421,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9444,19 +9447,19 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9505,7 +9508,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9523,10 +9526,10 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -489,7 +489,13 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -518,6 +524,9 @@
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは第1コードとして LP29684-5 を固定値として設定。第2コード以下にDICOMModalityコードを列挙することでレポートの対象検査内容を示す。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology.id</t>
@@ -1340,9 +1349,6 @@
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
 【JP Core仕様】・放射線レポートの所見の結論となるコードを設定。
 ・例えば、ICD 病名コード</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>レポートの補助として提供される診断コード。 / Diagnosis codes provided as adjuncts to the report.</t>
@@ -3182,24 +3188,26 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>141</v>
@@ -3220,24 +3228,24 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>142</v>
@@ -3262,10 +3270,10 @@
         <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>146</v>
@@ -3298,7 +3306,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3334,21 +3342,21 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3371,13 +3379,13 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3428,7 +3436,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3449,7 +3457,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3457,10 +3465,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3489,7 +3497,7 @@
         <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>100</v>
@@ -3530,19 +3538,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3563,7 +3571,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3571,10 +3579,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3597,19 +3605,19 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3658,7 +3666,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3676,10 +3684,10 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3687,10 +3695,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3713,13 +3721,13 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3770,7 +3778,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3791,7 +3799,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3799,10 +3807,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3831,7 +3839,7 @@
         <v>98</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>100</v>
@@ -3872,19 +3880,19 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3905,7 +3913,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3913,10 +3921,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3942,23 +3950,23 @@
         <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -4000,7 +4008,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4018,10 +4026,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -4029,10 +4037,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4055,16 +4063,16 @@
         <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4114,7 +4122,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4132,10 +4140,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4143,10 +4151,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4172,21 +4180,21 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4228,7 +4236,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4246,10 +4254,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4257,10 +4265,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4283,17 +4291,17 @@
         <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4303,7 +4311,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4342,7 +4350,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4360,10 +4368,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4371,10 +4379,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4397,19 +4405,19 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4458,7 +4466,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4476,10 +4484,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4487,10 +4495,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4513,19 +4521,19 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4574,7 +4582,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4592,10 +4600,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4603,13 +4611,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>142</v>
@@ -4634,10 +4642,10 @@
         <v>143</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>146</v>
@@ -4670,7 +4678,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4706,21 +4714,21 @@
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4743,13 +4751,13 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4800,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4821,7 +4829,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4829,10 +4837,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4861,7 +4869,7 @@
         <v>98</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>100</v>
@@ -4902,19 +4910,19 @@
         <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4935,7 +4943,7 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4943,10 +4951,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4969,19 +4977,19 @@
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -5030,7 +5038,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5048,10 +5056,10 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -5059,10 +5067,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5085,13 +5093,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5142,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5163,7 +5171,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5171,10 +5179,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5203,7 +5211,7 @@
         <v>98</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>100</v>
@@ -5244,19 +5252,19 @@
         <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5277,7 +5285,7 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5285,10 +5293,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5314,23 +5322,23 @@
         <v>65</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>41</v>
@@ -5372,7 +5380,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5390,10 +5398,10 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5401,10 +5409,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5427,16 +5435,16 @@
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5486,7 +5494,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5504,10 +5512,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5515,10 +5523,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5544,14 +5552,14 @@
         <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5600,7 +5608,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5618,10 +5626,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5629,10 +5637,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5655,17 +5663,17 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5714,7 +5722,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5732,10 +5740,10 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5743,10 +5751,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5769,19 +5777,19 @@
         <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5830,7 +5838,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5848,10 +5856,10 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5859,10 +5867,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5885,19 +5893,19 @@
         <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -5946,7 +5954,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5964,10 +5972,10 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5975,14 +5983,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6004,13 +6012,13 @@
         <v>143</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6040,7 +6048,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6058,7 +6066,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -6073,24 +6081,24 @@
         <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6113,13 +6121,13 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6170,7 +6178,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6191,7 +6199,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6199,10 +6207,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6231,7 +6239,7 @@
         <v>98</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>100</v>
@@ -6272,19 +6280,19 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6305,7 +6313,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6313,10 +6321,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6339,19 +6347,19 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6388,17 +6396,17 @@
         <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6416,10 +6424,10 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6427,13 +6435,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>41</v>
@@ -6455,19 +6463,19 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6516,7 +6524,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6534,10 +6542,10 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6545,10 +6553,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6571,13 +6579,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6628,7 +6636,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6649,7 +6657,7 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6657,10 +6665,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6689,7 +6697,7 @@
         <v>98</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>100</v>
@@ -6730,19 +6738,19 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6763,7 +6771,7 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6771,10 +6779,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6800,23 +6808,23 @@
         <v>65</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>41</v>
@@ -6858,7 +6866,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6876,10 +6884,10 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6887,10 +6895,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6913,16 +6921,16 @@
         <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6972,7 +6980,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6990,10 +6998,10 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -7001,10 +7009,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7030,21 +7038,21 @@
         <v>71</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>41</v>
@@ -7086,7 +7094,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7104,10 +7112,10 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7115,10 +7123,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7141,17 +7149,17 @@
         <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7161,7 +7169,7 @@
         <v>41</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>41</v>
@@ -7200,7 +7208,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7218,10 +7226,10 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7229,10 +7237,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7255,19 +7263,19 @@
         <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7316,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7334,10 +7342,10 @@
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7345,10 +7353,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7371,19 +7379,19 @@
         <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7432,7 +7440,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7450,10 +7458,10 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7461,14 +7469,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7487,19 +7495,19 @@
         <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7548,7 +7556,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7563,28 +7571,28 @@
         <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7603,19 +7611,19 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7664,7 +7672,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7679,28 +7687,28 @@
         <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7719,19 +7727,19 @@
         <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7780,7 +7788,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7795,28 +7803,28 @@
         <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7835,19 +7843,19 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -7896,7 +7904,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7914,25 +7922,25 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7951,19 +7959,19 @@
         <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8012,7 +8020,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8027,28 +8035,28 @@
         <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8067,19 +8075,19 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8128,7 +8136,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8143,24 +8151,24 @@
         <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8183,19 +8191,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8244,7 +8252,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8262,10 +8270,10 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8273,14 +8281,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8299,19 +8307,19 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8360,7 +8368,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8378,10 +8386,10 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8389,10 +8397,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8415,16 +8423,16 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8474,7 +8482,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8495,7 +8503,7 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8503,14 +8511,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8529,19 +8537,19 @@
         <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8590,7 +8598,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8608,10 +8616,10 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8619,10 +8627,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8645,13 +8653,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8702,7 +8710,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8723,7 +8731,7 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8731,10 +8739,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8763,7 +8771,7 @@
         <v>98</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>100</v>
@@ -8816,7 +8824,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8837,7 +8845,7 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8845,14 +8853,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8874,10 +8882,10 @@
         <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>100</v>
@@ -8932,7 +8940,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8961,10 +8969,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8987,19 +8995,19 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9048,7 +9056,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9069,7 +9077,7 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9077,10 +9085,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9103,16 +9111,16 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9162,7 +9170,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>51</v>
@@ -9183,7 +9191,7 @@
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9191,14 +9199,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9217,19 +9225,19 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9278,7 +9286,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9296,10 +9304,10 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9307,10 +9315,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9336,13 +9344,13 @@
         <v>143</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9368,13 +9376,13 @@
         <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>41</v>
@@ -9392,7 +9400,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9410,10 +9418,10 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9421,10 +9429,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9447,19 +9455,19 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9508,7 +9516,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9526,10 +9534,10 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -631,7 +631,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -631,7 +631,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>
